--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348640.8068119531</v>
+        <v>-351254.0930776281</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.00140100879008</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>262.9241195965827</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>23.98746169771379</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>54.95314960271718</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>239.6624903198213</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>113.593284370885</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>16.61379286428209</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>11.67533811108359</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>359.8087221979785</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.208809814848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>125.2814877929976</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>168.3867283860267</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272928</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>73.3661862535883</v>
+        <v>174.8493187430219</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,10 +1661,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819384</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>95.77623638693835</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>67.97896981790481</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>17.95257707283386</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>75.00788511618039</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,19 +2056,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>97.98413062224057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>94.64226186542875</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>115.2707447515123</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>147.919425578395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187858</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>7.155999212081841</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>96.3649446717877</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>196.3965208613886</v>
+        <v>186.8176706595559</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>100.781511665774</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>12.74007641194067</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>162.8435308896552</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>66.39615665301106</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652616</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>970.5047989601121</v>
+        <v>1587.416254062808</v>
       </c>
       <c r="C2" t="n">
-        <v>926.0589393552737</v>
+        <v>1218.453737122396</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>1218.453737122396</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000046</v>
+        <v>1587.416254062808</v>
       </c>
       <c r="X2" t="n">
-        <v>1747.243971000046</v>
+        <v>1587.416254062808</v>
       </c>
       <c r="Y2" t="n">
-        <v>1357.104639024234</v>
+        <v>1587.416254062808</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908464</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>815.114548125109</v>
+        <v>884.9085321458211</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>256.8716579022754</v>
+        <v>1464.985064510406</v>
       </c>
       <c r="C4" t="n">
-        <v>256.8716579022754</v>
+        <v>1464.985064510406</v>
       </c>
       <c r="D4" t="n">
-        <v>106.7550184899397</v>
+        <v>1440.755305219786</v>
       </c>
       <c r="E4" t="n">
-        <v>106.7550184899397</v>
+        <v>1440.755305219786</v>
       </c>
       <c r="F4" t="n">
-        <v>106.7550184899397</v>
+        <v>1293.865357721876</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>2236.777441110473</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1947.659103614311</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827661</v>
+        <v>1692.974615408424</v>
       </c>
       <c r="W4" t="n">
-        <v>477.6642370458055</v>
+        <v>1692.974615408424</v>
       </c>
       <c r="X4" t="n">
-        <v>477.6642370458055</v>
+        <v>1464.985064510406</v>
       </c>
       <c r="Y4" t="n">
-        <v>256.8716579022754</v>
+        <v>1464.985064510406</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1033.854129889792</v>
+        <v>1101.768613746537</v>
       </c>
       <c r="C5" t="n">
-        <v>1033.854129889792</v>
+        <v>1101.768613746537</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.854129889792</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>648.0658772915481</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190806</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1810.593301929726</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y5" t="n">
-        <v>1420.453969953914</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1922.533821476953</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>641.6752626691665</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="C7" t="n">
-        <v>472.7390797412596</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="D7" t="n">
-        <v>322.6224403289239</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E7" t="n">
-        <v>322.6224403289239</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>322.6224403289239</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
@@ -4723,25 +4723,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1624.652849255221</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1401.674368449956</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1401.674368449956</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671838</v>
+        <v>1146.989880244069</v>
       </c>
       <c r="W7" t="n">
-        <v>869.6648135671838</v>
+        <v>857.5727102071085</v>
       </c>
       <c r="X7" t="n">
-        <v>641.6752626691665</v>
+        <v>857.5727102071085</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.6752626691665</v>
+        <v>636.7801310635783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>844.329830759459</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="C8" t="n">
-        <v>844.329830759459</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>1520.24208717972</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>1134.453834581476</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532449</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796628</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796628</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.313418796628</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.847660535549</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1230.929670823581</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310612</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625327</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938516</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1946.556931114678</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>623.0447030767627</v>
+        <v>493.6198743604846</v>
       </c>
       <c r="C10" t="n">
-        <v>454.1085201488559</v>
+        <v>324.6836914325777</v>
       </c>
       <c r="D10" t="n">
-        <v>303.9918807365201</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1167.14636131961</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1167.14636131961</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V10" t="n">
-        <v>912.4618731137234</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W10" t="n">
-        <v>623.0447030767627</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X10" t="n">
-        <v>623.0447030767627</v>
+        <v>896.0609183342544</v>
       </c>
       <c r="Y10" t="n">
-        <v>623.0447030767627</v>
+        <v>675.2683391907243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5084,7 +5084,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855599</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199797</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.55619999391</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956949</v>
       </c>
       <c r="X13" t="n">
-        <v>1070.17693676985</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y13" t="n">
-        <v>849.3843576263199</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,22 +5291,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.6442739835331</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>586.7330863012082</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>439.8431388032978</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>272.6470395181778</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2311.251753753971</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2311.251753753971</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2022.176527098169</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1767.492038892282</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.074868855321</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.085317957304</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813774</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5522,10 +5522,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311989</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032921</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909563</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E19" t="n">
-        <v>482.6390612909563</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F19" t="n">
-        <v>335.7491137930459</v>
+        <v>478.4901340122882</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>311.2940347271681</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>169.5822035693662</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154528</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015258</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X25" t="n">
-        <v>1350.99156482496</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="26">
@@ -6206,70 +6206,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C28" t="n">
-        <v>803.2707707770319</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D28" t="n">
-        <v>653.1541313646961</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>505.241037782303</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>358.3510902843926</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>191.1549909992726</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6783,19 +6783,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>701.4712640439268</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>532.5350811160199</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>382.4184417036842</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1331.901858915714</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1103.912308017697</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>883.1197288741665</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>248.3972582582391</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>106.6854271004372</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2032.574130447511</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1743.498903791709</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1488.814415585822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1199.397245548862</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>701.4712640439268</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>532.5350811160199</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1621.319028952675</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1331.901858915714</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1103.912308017697</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>883.1197288741665</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7427,34 +7427,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,31 +7549,31 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7822,16 +7822,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589397</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>98.24448441976892</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>255.5240487471571</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>255.8421700460954</v>
+        <v>168.7434581780648</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>321.2714907622175</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18.93874020080518</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>86.31684912083028</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.3006472626182</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>111.353450442087</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631857005</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>152.3434691354489</v>
+        <v>50.86033664601524</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182161</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>44.51847645928554</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>113.0473161837398</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>147.571561219435</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>6.257951202385144</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>47.43691740069067</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>70.88187642684009</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>30.15030327141895</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>77.79022981064216</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>141.4594738061305</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>43.92976817443619</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>55.74112246243942</v>
+        <v>65.31997266427209</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>185.741486670817</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>68.52575990662486</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>54.56191943763307</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>185.7414866708169</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-2.435829443713351e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.796340981529261e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1137324.567146156</v>
+        <v>1137324.567146157</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1137324.567146157</v>
+        <v>1137324.567146156</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1137324.567146156</v>
+        <v>1137324.567146157</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1137324.567146157</v>
+        <v>1137324.567146156</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1137324.567146156</v>
+        <v>1137324.567146157</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1137324.567146156</v>
+        <v>1137324.567146157</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1137324.567146156</v>
+        <v>1137324.567146157</v>
       </c>
     </row>
     <row r="15">
@@ -26314,25 +26314,25 @@
         <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.309891502</v>
       </c>
       <c r="F2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="G2" t="n">
         <v>282501.3098915023</v>
       </c>
-      <c r="G2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="H2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="I2" t="n">
         <v>282501.3098915021</v>
-      </c>
-      <c r="I2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
@@ -26344,16 +26344,16 @@
         <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="N2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="N2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="O2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="P2" t="n">
         <v>287364.6194524992</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.6194524993</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363162</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75901.30525940965</v>
+        <v>75901.3052594097</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26433,28 +26433,28 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731988</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426732013</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
+        <v>8117.312426732014</v>
+      </c>
+      <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="L4" t="n">
-        <v>8117.312426731996</v>
-      </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731952</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731949</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.1716898255</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982544</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1032047.935340132</v>
+        <v>-1032303.804579543</v>
       </c>
       <c r="C6" t="n">
-        <v>60108.84675079086</v>
+        <v>60108.84675079104</v>
       </c>
       <c r="D6" t="n">
-        <v>60108.84675079094</v>
+        <v>60108.84675079092</v>
       </c>
       <c r="E6" t="n">
-        <v>-334223.9739836828</v>
+        <v>-334258.7119091186</v>
       </c>
       <c r="F6" t="n">
-        <v>173261.4676408631</v>
+        <v>173226.7297154273</v>
       </c>
       <c r="G6" t="n">
-        <v>173261.4676408631</v>
+        <v>173226.7297154274</v>
       </c>
       <c r="H6" t="n">
-        <v>173261.467640863</v>
+        <v>173226.7297154275</v>
       </c>
       <c r="I6" t="n">
-        <v>173261.4676408631</v>
+        <v>173226.7297154273</v>
       </c>
       <c r="J6" t="n">
-        <v>5656.289830880502</v>
+        <v>5621.551905444794</v>
       </c>
       <c r="K6" t="n">
-        <v>173261.467640863</v>
+        <v>173226.7297154273</v>
       </c>
       <c r="L6" t="n">
-        <v>173261.467640863</v>
+        <v>173226.7297154273</v>
       </c>
       <c r="M6" t="n">
-        <v>40654.17391193628</v>
+        <v>40619.4359865006</v>
       </c>
       <c r="N6" t="n">
-        <v>173261.4676408631</v>
+        <v>173226.7297154274</v>
       </c>
       <c r="O6" t="n">
-        <v>148664.6139151265</v>
+        <v>148664.6139151268</v>
       </c>
       <c r="P6" t="n">
         <v>168092.3319087584</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.7194447794286</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.5313329193191</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>124.6280113204986</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>115.0205513008617</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>293.2827613708265</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>149.6928071805221</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>182.9871222506539</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>47.06732354373293</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.02912884120559</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>23.33398522521478</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>52.36196761118526</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,64 +28099,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.364242052659392e-12</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28381,10 +28381,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,7 +31516,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31534,7 +31534,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166594</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
@@ -31604,22 +31604,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31671,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
@@ -31686,10 +31686,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31704,13 +31704,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024984</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338208</v>
       </c>
       <c r="M12" t="n">
-        <v>530.5785304507792</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>622.3466130915036</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>583.0802355498163</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>463.4318227833011</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33263,10 +33263,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,22 +33503,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>300.768778117042</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>386.7287743289961</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>186.6878763515707</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>314.5984986256103</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681142</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>395.9248450576191</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>505.2035778706894</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067507</v>
@@ -35182,7 +35182,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949726</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000385</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>505.5216991696276</v>
+        <v>418.422987301597</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35337,7 +35337,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35346,7 +35346,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
         <v>54.881755458054</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394658</v>
       </c>
       <c r="M12" t="n">
-        <v>388.4444965287609</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>479.7503686470592</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>444.5258557699421</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>320.8355783388566</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,10 +36911,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>169.4270660337087</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>244.1325298845517</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>44.0916319071262</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
